--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisCol" showAll="0" defaultSubtotal="0">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -505,10 +505,10 @@
   <x:cols>
     <x:col min="1" max="1" width="9.625425" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="8.925425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.395425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.325425" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="10.685425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.355425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.735425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.335425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.625425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -503,12 +503,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.565425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.135425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.595425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.645425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.115425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.105425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.295425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.765425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.645425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.155425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.795425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.615425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -503,12 +503,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.295425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.765425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="20.645425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.795425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.615425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.025425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.335425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="24.595425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.155425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.685425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="18.055425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -503,12 +503,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.025425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.335425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="24.595425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.685425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="18.055425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.025425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.335425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.595425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.155425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.685425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.055425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -144,11 +144,11 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality"/>
     <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0"/>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="1">
     <x:field x="4"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -503,12 +503,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.025425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.335425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="20.595425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.685425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.055425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.355425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.625425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.385425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.525425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.035425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.525425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -503,12 +503,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.355425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.625425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.385425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.525425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.035425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.525425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.891116" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.215301" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.258449" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.988458" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.530743" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.857462" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -503,12 +503,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.625425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.925425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.395425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.685425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.355425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.735425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.665425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.005425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.485425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.705425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.445425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.805425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -535,13 +535,13 @@
       <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="0">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>60.2</x:v>
       </x:c>
       <x:c r="F2" s="1">
@@ -552,13 +552,13 @@
       <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
+      <x:c r="D3" s="0">
         <x:v>50.42</x:v>
       </x:c>
       <x:c r="F3" s="1">
@@ -569,13 +569,13 @@
       <x:c r="A4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>22.12</x:v>
       </x:c>
       <x:c r="F4" s="1">
@@ -586,13 +586,13 @@
       <x:c r="A5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="0">
         <x:v>89.99</x:v>
       </x:c>
       <x:c r="F5" s="1">
@@ -603,13 +603,13 @@
       <x:c r="A6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="n">
+      <x:c r="D6" s="0">
         <x:v>70</x:v>
       </x:c>
       <x:c r="F6" s="1">
@@ -620,13 +620,13 @@
       <x:c r="A7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="0">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="n">
+      <x:c r="D7" s="0">
         <x:v>75.33</x:v>
       </x:c>
       <x:c r="F7" s="1">
@@ -637,13 +637,13 @@
       <x:c r="A8" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="n">
+      <x:c r="B8" s="0">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="n">
+      <x:c r="D8" s="0">
         <x:v>10.24</x:v>
       </x:c>
       <x:c r="F8" s="1">
@@ -654,13 +654,13 @@
       <x:c r="A9" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="n">
+      <x:c r="B9" s="0">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="n">
+      <x:c r="D9" s="0">
         <x:v>33.33</x:v>
       </x:c>
       <x:c r="F9" s="1">
@@ -671,13 +671,13 @@
       <x:c r="A10" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="n">
+      <x:c r="B10" s="0">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="n">
+      <x:c r="D10" s="0">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="1">
@@ -688,28 +688,28 @@
       <x:c r="A11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="n">
+      <x:c r="B11" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>394</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="n">
+      <x:c r="D11" s="0">
         <x:v>-20.24</x:v>
       </x:c>
-      <x:c r="F11" s="2" t="s"/>
+      <x:c r="F11" s="2"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="n">
+      <x:c r="B12" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="n">
+      <x:c r="C12" s="0">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="n">
+      <x:c r="D12" s="0">
         <x:v>60</x:v>
       </x:c>
       <x:c r="F12" s="1">
@@ -720,13 +720,13 @@
       <x:c r="A13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="n">
+      <x:c r="B13" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="n">
+      <x:c r="C13" s="0">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="n">
+      <x:c r="D13" s="0">
         <x:v>24.76</x:v>
       </x:c>
       <x:c r="F13" s="1">
@@ -737,13 +737,13 @@
       <x:c r="A14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="n">
+      <x:c r="B14" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="n">
+      <x:c r="C14" s="0">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="n">
+      <x:c r="D14" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F14" s="1">
@@ -754,13 +754,13 @@
       <x:c r="A15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="n">
+      <x:c r="B15" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="n">
+      <x:c r="C15" s="0">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="n">
+      <x:c r="D15" s="0">
         <x:v>5.19</x:v>
       </x:c>
       <x:c r="F15" s="1">
@@ -771,13 +771,13 @@
       <x:c r="A16" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="n">
+      <x:c r="B16" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="n">
+      <x:c r="C16" s="0">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="n">
+      <x:c r="D16" s="0">
         <x:v>44.2</x:v>
       </x:c>
       <x:c r="F16" s="1">
@@ -788,10 +788,10 @@
       <x:c r="A17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="n">
+      <x:c r="C17" s="0">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="n">
+      <x:c r="D17" s="0">
         <x:v>18.4</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -65,7 +65,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="0%"/>
+    <x:numFmt numFmtId="164" formatCode="0%"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -183,7 +183,7 @@
     </x:i>
   </x:colItems>
   <x:dataFields count="1">
-    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="165"/>
+    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
   </x:dataFields>
   <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
   <x:extLst>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -844,7 +844,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -503,12 +503,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.665425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.005425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.485425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.705425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.445425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.805425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.996339" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.710625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -12,7 +12,7 @@
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="0" r:id="rId7"/>
+    <x:pivotCache cacheId="0" r:id="rId6"/>
   </x:pivotCaches>
 </x:workbook>
 </file>
@@ -147,14 +147,20 @@
     <x:pivotField name="Code" defaultSubtotal="0"/>
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0"/>
+    <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <x:items count="1">
+        <x:item x="0"/>
+      </x:items>
+    </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
   </x:pivotFields>
   <x:rowFields count="1">
     <x:field x="4"/>
   </x:rowFields>
   <x:rowItems count="2">
-    <x:i/>
+    <x:i>
+      <x:x v="0"/>
+    </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>
@@ -801,7 +807,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId6"/>
+    <x:tablePart r:id="rId7"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -844,19 +850,76 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="6">
+        <x:n v="101"/>
+        <x:n v="102"/>
+        <x:n v="103"/>
+        <x:n v="104"/>
+        <x:n v="105"/>
+        <x:m/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14">
+        <x:n v="150"/>
+        <x:n v="250"/>
+        <x:n v="134"/>
+        <x:n v="225"/>
+        <x:n v="210"/>
+        <x:n v="184"/>
+        <x:n v="124"/>
+        <x:n v="394"/>
+        <x:n v="190"/>
+        <x:n v="221"/>
+        <x:n v="135"/>
+        <x:n v="122"/>
+        <x:n v="243"/>
+        <x:n v="255"/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16">
+        <x:n v="60.2"/>
+        <x:n v="50.42"/>
+        <x:n v="22.12"/>
+        <x:n v="89.99"/>
+        <x:n v="70"/>
+        <x:n v="75.33"/>
+        <x:n v="10.24"/>
+        <x:n v="33.33"/>
+        <x:n v="25"/>
+        <x:n v="-20.24"/>
+        <x:n v="60"/>
+        <x:n v="24.76"/>
+        <x:n v="0"/>
+        <x:n v="5.19"/>
+        <x:n v="44.2"/>
+        <x:n v="18.4"/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1"/>
+      <x:sharedItems count="1">
+        <x:s v=""/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="14"/>
+      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15">
+        <x:d v="2016-04-21T00:00:00"/>
+        <x:d v="2016-05-03T00:00:00"/>
+        <x:d v="2016-06-24T00:00:00"/>
+        <x:d v="2017-04-23T00:00:00"/>
+        <x:d v="2016-05-24T00:00:00"/>
+        <x:d v="2016-06-02T00:00:00"/>
+        <x:d v="2016-04-27T00:00:00"/>
+        <x:d v="2016-05-20T00:00:00"/>
+        <x:d v="2017-06-05T00:00:00"/>
+        <x:m/>
+        <x:d v="2017-05-08T00:00:00"/>
+        <x:d v="2016-06-21T00:00:00"/>
+        <x:d v="2017-04-22T00:00:00"/>
+        <x:d v="2017-05-03T00:00:00"/>
+        <x:d v="2017-06-14T00:00:00"/>
+      </x:sharedItems>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -817,14 +817,11 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-  </x:cols>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Pastry Sales Data" sheetId="2" r:id="rId2"/>
-    <x:sheet name="pvt" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Pastry Sales Data" sheetId="1" r:id="rId2"/>
+    <x:sheet name="pvt" sheetId="2" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -923,5 +923,134 @@
 </file>
 
 <file path=pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <s v="Croissant"/>
+    <n v="101"/>
+    <n v="150"/>
+    <n v="60.2"/>
+    <s v=""/>
+    <d v="2016-04-21T00:00:00"/>
+  </r>
+  <r>
+    <s v="Croissant"/>
+    <n v="101"/>
+    <n v="250"/>
+    <n v="50.42"/>
+    <s v=""/>
+    <d v="2016-05-03T00:00:00"/>
+  </r>
+  <r>
+    <s v="Croissant"/>
+    <n v="101"/>
+    <n v="134"/>
+    <n v="22.12"/>
+    <s v=""/>
+    <d v="2016-06-24T00:00:00"/>
+  </r>
+  <r>
+    <s v="Doughnut"/>
+    <n v="102"/>
+    <n v="250"/>
+    <n v="89.99"/>
+    <s v=""/>
+    <d v="2017-04-23T00:00:00"/>
+  </r>
+  <r>
+    <s v="Doughnut"/>
+    <n v="102"/>
+    <n v="225"/>
+    <n v="70"/>
+    <s v=""/>
+    <d v="2016-05-24T00:00:00"/>
+  </r>
+  <r>
+    <s v="Doughnut"/>
+    <n v="102"/>
+    <n v="210"/>
+    <n v="75.33"/>
+    <s v=""/>
+    <d v="2016-06-02T00:00:00"/>
+  </r>
+  <r>
+    <s v="Bearclaw"/>
+    <n v="103"/>
+    <n v="134"/>
+    <n v="10.24"/>
+    <s v=""/>
+    <d v="2016-04-27T00:00:00"/>
+  </r>
+  <r>
+    <s v="Bearclaw"/>
+    <n v="103"/>
+    <n v="184"/>
+    <n v="33.33"/>
+    <s v=""/>
+    <d v="2016-05-20T00:00:00"/>
+  </r>
+  <r>
+    <s v="Bearclaw"/>
+    <n v="103"/>
+    <n v="124"/>
+    <n v="25"/>
+    <s v=""/>
+    <d v="2017-06-05T00:00:00"/>
+  </r>
+  <r>
+    <s v="Danish"/>
+    <n v="104"/>
+    <n v="394"/>
+    <n v="-20.24"/>
+    <s v=""/>
+    <m/>
+  </r>
+  <r>
+    <s v="Danish"/>
+    <n v="104"/>
+    <n v="190"/>
+    <n v="60"/>
+    <s v=""/>
+    <d v="2017-05-08T00:00:00"/>
+  </r>
+  <r>
+    <s v="Danish"/>
+    <n v="104"/>
+    <n v="221"/>
+    <n v="24.76"/>
+    <s v=""/>
+    <d v="2016-06-21T00:00:00"/>
+  </r>
+  <r>
+    <s v="Scone"/>
+    <n v="105"/>
+    <n v="135"/>
+    <n v="0"/>
+    <s v=""/>
+    <d v="2017-04-22T00:00:00"/>
+  </r>
+  <r>
+    <s v="SconE"/>
+    <n v="105"/>
+    <n v="122"/>
+    <n v="5.19"/>
+    <s v=""/>
+    <d v="2017-05-03T00:00:00"/>
+  </r>
+  <r>
+    <s v="SCONE"/>
+    <n v="105"/>
+    <n v="243"/>
+    <n v="44.2"/>
+    <s v=""/>
+    <d v="2017-06-14T00:00:00"/>
+  </r>
+  <r>
+    <s v="Scone"/>
+    <m/>
+    <n v="255"/>
+    <n v="18.4"/>
+    <s v=""/>
+    <m/>
+  </r>
+</pivotCacheRecords>
 </file>
--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -93,46 +93,31 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="2">
-    <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="2">
-        <x:item x="0"/>
-        <x:item x="1"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Sold count" dataField="1" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="0"/>
-  </x:rowFields>
-  <x:rowItems count="3">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colItems count="1">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="Sold count" fld="1" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField name="Name" axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <dataFields count="1">
+    <dataField name="Sold count" fld="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -96,11 +96,10 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
   <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
   <pivotFields count="2">
-    <pivotField name="Name" axis="axisRow" showAll="0">
-      <items count="3">
+    <pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
         <item x="0"/>
         <item x="1"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -93,46 +93,30 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="2">
-    <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="2">
-        <x:item x="0"/>
-        <x:item x="1"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Sold count" dataField="1" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="0"/>
-  </x:rowFields>
-  <x:rowItems count="3">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colItems count="1">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="Sold count" fld="1" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <dataFields count="1">
+    <dataField name="Sold count" fld="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
